--- a/biology/Botanique/Réserve_naturelle_de_Tammisto/Réserve_naturelle_de_Tammisto.xlsx
+++ b/biology/Botanique/Réserve_naturelle_de_Tammisto/Réserve_naturelle_de_Tammisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_de_Tammisto</t>
+          <t>Réserve_naturelle_de_Tammisto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve naturelle de Tammisto (finnois : Tammiston luonnonsuojelualue) est une chênaie du quartier de Tammisto à  Vantaa en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve naturelle de Tammisto (finnois : Tammiston luonnonsuojelualue) est une chênaie du quartier de Tammisto à  Vantaa en Finlande,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_de_Tammisto</t>
+          <t>Réserve_naturelle_de_Tammisto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve naturelle de Tammisto est l'une des rares chênaies naturelles de la région d'Helsinki[3].
-La réserve naturelle de Tammisto est la première réserve naturelle de Vantaa et elle a été protégée en 1946[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve naturelle de Tammisto est l'une des rares chênaies naturelles de la région d'Helsinki.
+La réserve naturelle de Tammisto est la première réserve naturelle de Vantaa et elle a été protégée en 1946.
 La forêt s'étend sur 7,4 hectares. Depuis 1999, le nom de la colline est Tammistonmäki.
-La superficie de l'ensemble de la zone est de 15,3 hectares, la zone protégée s'étend sur 13,5 hectares[5],[3].
+La superficie de l'ensemble de la zone est de 15,3 hectares, la zone protégée s'étend sur 13,5 hectares,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_de_Tammisto</t>
+          <t>Réserve_naturelle_de_Tammisto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Versant sud</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le versant sud est nettement plus lumineux que le versant nord.
 70 grands chênes, noyers et 135 érables y poussent.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_naturelle_de_Tammisto</t>
+          <t>Réserve_naturelle_de_Tammisto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,13 +599,15 @@
           <t>Versant nord</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la forêt du versant nord, on trouve de nombreux arbres nobles ligneux, 58 chênes, 34 tilleuls, 37 érables et 55 frênes.
 De plus, il y a une abondance de bois noble plus jeune. Le bouleau, le sorbier, le tremble et l'aulne blanc y poussent parmi d'autres feuillus. Il y a aussi de nombreux épicéas étonnamment grands qui poussent sur le versant nord, et quelques chênes et tilleuls sont également de taille respectable.
-Il y a aussi de nombreux épicéas étonnamment grands qui poussent sur le versant nord, et quelques chênes et tilleuls sont également de taille respectable. Cependant, la spécialité de la partie nord est sa vaste noyeraie, où poussent jusqu'à 3 000 noyers[6].
+Il y a aussi de nombreux épicéas étonnamment grands qui poussent sur le versant nord, et quelques chênes et tilleuls sont également de taille respectable. Cependant, la spécialité de la partie nord est sa vaste noyeraie, où poussent jusqu'à 3 000 noyers.
 La plupart d'entre eux mesurent plus de deux mètres de haut, certains même quatre mètres. Dans la végétation des sous bois, typique des bosquets d'épicéas, poussent l'oseille des bois et l'anémone hépatique. Au printemps, l'anémone des bois pousse abondamment au pied des noyers dans les endroits lumineux.
-Du côté de la forêt d'épicéas, il y a beaucoup de bois pourri par endroits, lorsque de grands épicéas sont morts debout ou tombés à cause des vents tempêtueux[7].
+Du côté de la forêt d'épicéas, il y a beaucoup de bois pourri par endroits, lorsque de grands épicéas sont morts debout ou tombés à cause des vents tempêtueux.
 Quelques sapins ombragés ont été supprimés du versant nord, ce qui a donné plus de lumière aux arbres nobles et aux noyers. Car il y a aussi du bois pourri, surtout des picidés et les pics noirs prospèrent sur le versant nord.
 </t>
         </is>
